--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2020 (J20).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2020 (J20).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,315 +444,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arena Rector</t>
+          <t>('Arena Rector', ['{3}{W}', 'Creature — Human Cleric', 'When Arena Rector dies, you may exile it. If you do, search your library for a planeswalker card, put it onto the battlefield, then shuffle your library.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{W}</t>
+          <t>('Birthing Pod', ['{3}{G/P}', 'Artifact', '({G/P} can be paid with either {G} or 2 life.)', '{1}{G/P}, {T}, Sacrifice a creature: Search your library for a creature card with converted mana cost equal to 1 plus the sacrificed creature’s converted mana cost, put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Human Cleric</t>
+          <t>('Demonic Tutor', ['{1}{B}', 'Sorcery', 'Search your library for a card, put that card into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When Arena Rector dies, you may exile it. If you do, search your library for a planeswalker card, put it onto the battlefield, then shuffle your library.</t>
+          <t>('Enlightened Tutor', ['{W}', 'Instant', 'Search your library for an artifact or enchantment card and reveal that card. Shuffle your library, then put the card on top of it.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2</t>
+          <t>('Eye of Ugin', ['Legendary Land', 'Colorless Eldrazi spells you cast cost {2} less to cast.', '{7}, {T}: Search your library for a colorless creature card, reveal it, and put it into your hand. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Birthing Pod</t>
+          <t>('Gamble', ['{R}', 'Sorcery', 'Search your library for a card, put that card into your hand, discard a card at random, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{3}{G/P}</t>
+          <t>('Infernal Tutor', ['{1}{B}', 'Sorcery', 'Reveal a card from your hand. Search your library for a card with the same name as that card, reveal it, put it into your hand, then shuffle your library.', 'Hellbent — If you have no cards in hand, instead search your library for a card, put it into your hand, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Artifact</t>
+          <t>('Spellseeker', ['{2}{U}', 'Creature — Human Wizard', 'When Spellseeker enters the battlefield, you may search your library for an instant or sorcery card with converted mana cost 2 or less, reveal it, put it into your hand, then shuffle your library.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>({G/P} can be paid with either {G} or 2 life.)</t>
+          <t>('Sterling Grove', ['{G}{W}', 'Enchantment', 'Other enchantments you control have shroud. (They can’t be the targets of spells or abilities.)', '{1}, Sacrifice Sterling Grove: Search your library for an enchantment card and reveal that card. Shuffle your library, then put the card on top of it.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{1}{G/P}, {T}, Sacrifice a creature: Search your library for a creature card with converted mana cost equal to 1 plus the sacrificed creature’s converted mana cost, put that card onto the battlefield, then shuffle your library. Activate this ability only any time you could cast a sorcery.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Demonic Tutor</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Search your library for a card, put that card into your hand, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Enlightened Tutor</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Search your library for an artifact or enchantment card and reveal that card. Shuffle your library, then put the card on top of it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Eye of Ugin</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Legendary Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Colorless Eldrazi spells you cast cost {2} less to cast.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{7}, {T}: Search your library for a colorless creature card, reveal it, and put it into your hand. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Gamble</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Search your library for a card, put that card into your hand, discard a card at random, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Infernal Tutor</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Reveal a card from your hand. Search your library for a card with the same name as that card, reveal it, put it into your hand, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Hellbent — If you have no cards in hand, instead search your library for a card, put it into your hand, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Spellseeker</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>When Spellseeker enters the battlefield, you may search your library for an instant or sorcery card with converted mana cost 2 or less, reveal it, put it into your hand, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Sterling Grove</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{G}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Other enchantments you control have shroud. (They can’t be the targets of spells or abilities.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>{1}, Sacrifice Sterling Grove: Search your library for an enchantment card and reveal that card. Shuffle your library, then put the card on top of it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Sylvan Tutor</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Search your library for a creature card and reveal that card. Shuffle your library, then put the card on top of it.</t>
+          <t>('Sylvan Tutor', ['{G}', 'Sorcery', 'Search your library for a creature card and reveal that card. Shuffle your library, then put the card on top of it.'])</t>
         </is>
       </c>
     </row>
